--- a/biology/Médecine/Ambroise-Auguste_Liébeault/Ambroise-Auguste_Liébeault.xlsx
+++ b/biology/Médecine/Ambroise-Auguste_Liébeault/Ambroise-Auguste_Liébeault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ambroise-Auguste_Li%C3%A9beault</t>
+          <t>Ambroise-Auguste_Liébeault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise-Auguste Liébeault, né à Favières (Meurthe) le 16 septembre 1823 et mort à Nancy le 18 février 1904, est un médecin français célèbre dans l'histoire de l'hypnose et du magnétisme animal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ambroise-Auguste_Li%C3%A9beault</t>
+          <t>Ambroise-Auguste_Liébeault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise-Auguste Liébeault naît le 16 septembre 1823 à Favières (meurthe et Moselle), de parents exploitants agricoles. Dernier-né de la fratrie, il est voué à la prêtrise par ses parents, et entre au petit séminaire en 1838 à l'âge de 15 ans. Ce n'est qu'en 1844 qu'il s'inscrit à la faculté de médecine de Strasbourg où il est l'élève de Charles Schützenberger.
 Vers 1848, encore jeune interne en chirurgie, il commence à s'intéresser au magnétisme animal. Il lit le Manuel pratique de magnétisme animal d'Alphonse Teste et prend connaissance du rapport de Husson déposé en 1831. Influencé par les magnétiseurs Charles Lafontaine et Jules Dupotet de Sennevoy, il commence à endormir des jeunes femmes. Il passe, le 7 février 1850, sa thèse de médecine, intitulée « Étude sur la désarticulation fémoro-tibiale » et la même année s'installe à Pont-Saint-Vincent à côté de Nancy comme médecin de campagne. Pendant dix ans, Liébeault interrompt ses expériences de magnétisme.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ambroise-Auguste_Li%C3%A9beault</t>
+          <t>Ambroise-Auguste_Liébeault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un buste d'Ambroise-Auguste Liébeault s'élève au parc Olry[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un buste d'Ambroise-Auguste Liébeault s'élève au parc Olry.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ambroise-Auguste_Li%C3%A9beault</t>
+          <t>Ambroise-Auguste_Liébeault</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude sur la désarticulation fémoro-tibiale, 1850, thèse de médecine, Strasbourg, no 205
 Du sommeil et des états analogues considérés surtout au point de vue de l'action du moral sur le physique,  Paris, Masson, 1866
